--- a/Lab1Start v5.xlsx
+++ b/Lab1Start v5.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Revenue</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Bikes</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
   </si>
 </sst>
 </file>
@@ -106,6 +109,2956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly Category Revenue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>3384215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4293592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3285954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4154231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B87-421A-9431-0E6C7F1744AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8964888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9175983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9858787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7611243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14799083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11372150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B87-421A-9431-0E6C7F1744AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>1997035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2247889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2187004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B87-421A-9431-0E6C7F1744AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8964888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9175983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15240037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14152724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20023991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17713385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B87-421A-9431-0E6C7F1744AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="366314160"/>
+        <c:axId val="366314488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="366314160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366314488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366314488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366314160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15117992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61782134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8370882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-976E-4E17-A35E-DCEBAE799A6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue by Country</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27975547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21302059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10646196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8978596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8432872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7935738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43E5-47BD-80B5-7626FC0C10F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="426660120"/>
+        <c:axId val="426660448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="426660120"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426660448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426660448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426660120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +3327,7 @@
   <dimension ref="B3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +3412,35 @@
         <v>2187004</v>
       </c>
     </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C4:C6)</f>
+        <v>8964888</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:H7" si="0">SUM(D4:D6)</f>
+        <v>9175983</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15240037</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14152724</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20023991</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>17713385</v>
+      </c>
+    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
@@ -495,26 +3477,26 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>21302059</v>
+        <v>27975547</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7935738</v>
+        <v>21302059</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>8432872</v>
+        <v>10646196</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -527,21 +3509,25 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>10646196</v>
+        <v>8432872</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>27975547</v>
+        <v>7935738</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B16:C21">
+    <sortCondition descending="1" ref="C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>